--- a/biology/Botanique/Parc_central_de_Tartu/Parc_central_de_Tartu.xlsx
+++ b/biology/Botanique/Parc_central_de_Tartu/Parc_central_de_Tartu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc central (estonien : Keskpark) est un parc du quartier Kesklinn de Tartu en Estonie.
 </t>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc a été créé sous la direction de l'architecte municipal Arnold Matteus.
 La superficie du parc est de 1,9 hectare
@@ -519,7 +533,7 @@
 Au milieu du parc se trouvent deux places pavées d'où partent des chemins en diagonale.
 Le parc dispose de bancs et d'une aire de jeux pour enfants.
 Des expositions, des concerts, des événements y sont organisés, des présentations et des ateliers, etc., 
-Lors de grands événements et foires, le parc propose des attractions pour enfants, des événements d'intérêt et des tentes de vente, un cinéma en plein air[1],[2],[3],[4].
+Lors de grands événements et foires, le parc propose des attractions pour enfants, des événements d'intérêt et des tentes de vente, un cinéma en plein air.
 </t>
         </is>
       </c>
